--- a/APPROVALCAMP.xlsx
+++ b/APPROVALCAMP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -131,6 +131,57 @@
   </x:si>
   <x:si>
     <x:t>User should be able to view the e-mail to either Approve/Reject the request.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_2.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Approve/Reject Campaign</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Campaign tab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Campaign Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>From the list of the  Campaigns displayed, select the appropriate Campaign.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Campaign details page.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scroll down the Campaign page to locate the 'Approval History' section.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to view the pending Approve/Reject requests listed.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>To Approve/Reject the record's request, Click on 'Approve/Reject' link.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Approval Request, Account:(Approver Name) Page.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In the 'Approve/Reject Approval Request' section, input comments if required.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input appropriate comments.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the 'Approve' or the 'Reject' button to either Approve or Reject the request.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to either 'Approve' or 'Reject' the request.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>On performing either 'Approval' or 'Rejection' action, user is navigated to the Campaign request page.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to view the request is either 'Approved' or 'Rejected'.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -214,8 +265,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J9" totalsRowShown="0">
-  <x:autoFilter ref="A1:J9"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J17" totalsRowShown="0">
+  <x:autoFilter ref="A1:J17"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -520,7 +571,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J9"/>
+  <x:dimension ref="A1:J17"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -528,7 +579,7 @@
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="16.270625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="26.130625000000002" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="125.70062499999999" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
@@ -724,6 +775,158 @@
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
     </x:row>
+    <x:row r="10" spans="1:10">
+      <x:c r="A10" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s"/>
+      <x:c r="F10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s"/>
+      <x:c r="J10" s="0" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:10">
+      <x:c r="A11" s="0" t="s"/>
+      <x:c r="B11" s="0" t="s"/>
+      <x:c r="C11" s="0" t="s"/>
+      <x:c r="D11" s="0" t="s"/>
+      <x:c r="E11" s="0" t="s"/>
+      <x:c r="F11" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s"/>
+      <x:c r="J11" s="0" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:10">
+      <x:c r="A12" s="0" t="s"/>
+      <x:c r="B12" s="0" t="s"/>
+      <x:c r="C12" s="0" t="s"/>
+      <x:c r="D12" s="0" t="s"/>
+      <x:c r="E12" s="0" t="s"/>
+      <x:c r="F12" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s"/>
+      <x:c r="J12" s="0" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:10">
+      <x:c r="A13" s="0" t="s"/>
+      <x:c r="B13" s="0" t="s"/>
+      <x:c r="C13" s="0" t="s"/>
+      <x:c r="D13" s="0" t="s"/>
+      <x:c r="E13" s="0" t="s"/>
+      <x:c r="F13" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s"/>
+      <x:c r="J13" s="0" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:10">
+      <x:c r="A14" s="0" t="s"/>
+      <x:c r="B14" s="0" t="s"/>
+      <x:c r="C14" s="0" t="s"/>
+      <x:c r="D14" s="0" t="s"/>
+      <x:c r="E14" s="0" t="s"/>
+      <x:c r="F14" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s"/>
+      <x:c r="J14" s="0" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:10">
+      <x:c r="A15" s="0" t="s"/>
+      <x:c r="B15" s="0" t="s"/>
+      <x:c r="C15" s="0" t="s"/>
+      <x:c r="D15" s="0" t="s"/>
+      <x:c r="E15" s="0" t="s"/>
+      <x:c r="F15" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s"/>
+      <x:c r="J15" s="0" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:10">
+      <x:c r="A16" s="0" t="s"/>
+      <x:c r="B16" s="0" t="s"/>
+      <x:c r="C16" s="0" t="s"/>
+      <x:c r="D16" s="0" t="s"/>
+      <x:c r="E16" s="0" t="s"/>
+      <x:c r="F16" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s"/>
+      <x:c r="J16" s="0" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:10">
+      <x:c r="A17" s="0" t="s"/>
+      <x:c r="B17" s="0" t="s"/>
+      <x:c r="C17" s="0" t="s"/>
+      <x:c r="D17" s="0" t="s"/>
+      <x:c r="E17" s="0" t="s"/>
+      <x:c r="F17" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s"/>
+      <x:c r="J17" s="0" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
